--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H2">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I2">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J2">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N2">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O2">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P2">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q2">
-        <v>13.19142292211487</v>
+        <v>0.9075999482022502</v>
       </c>
       <c r="R2">
-        <v>13.19142292211487</v>
+        <v>3.630399792809001</v>
       </c>
       <c r="S2">
-        <v>0.006881195669639637</v>
+        <v>0.0002800513632280755</v>
       </c>
       <c r="T2">
-        <v>0.006881195669639637</v>
+        <v>0.0001835521480732482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H3">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I3">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J3">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N3">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O3">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P3">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q3">
-        <v>111.9274204672426</v>
+        <v>7.023427283340332</v>
       </c>
       <c r="R3">
-        <v>111.9274204672426</v>
+        <v>42.140563700042</v>
       </c>
       <c r="S3">
-        <v>0.05838600472295721</v>
+        <v>0.00216716670062481</v>
       </c>
       <c r="T3">
-        <v>0.05838600472295721</v>
+        <v>0.00213061685478319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H4">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I4">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J4">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N4">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O4">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P4">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q4">
-        <v>27.52793460558294</v>
+        <v>0.002145489220333334</v>
       </c>
       <c r="R4">
-        <v>27.52793460558294</v>
+        <v>0.012872935322</v>
       </c>
       <c r="S4">
-        <v>0.01435971733454904</v>
+        <v>6.620176456991134E-07</v>
       </c>
       <c r="T4">
-        <v>0.01435971733454904</v>
+        <v>6.50852541100672E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,173 +726,173 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.82251090663888</v>
+        <v>0.1669295</v>
       </c>
       <c r="H5">
-        <v>2.82251090663888</v>
+        <v>0.333859</v>
       </c>
       <c r="I5">
-        <v>0.1649519591337076</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J5">
-        <v>0.1649519591337076</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N5">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O5">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P5">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q5">
-        <v>163.5702225424237</v>
+        <v>0.02125418730116667</v>
       </c>
       <c r="R5">
-        <v>163.5702225424237</v>
+        <v>0.127525123807</v>
       </c>
       <c r="S5">
-        <v>0.08532504140656168</v>
+        <v>6.558246438628234E-06</v>
       </c>
       <c r="T5">
-        <v>0.08532504140656168</v>
+        <v>6.447639858961745E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.23144062057067</v>
+        <v>0.1669295</v>
       </c>
       <c r="H6">
-        <v>2.23144062057067</v>
+        <v>0.333859</v>
       </c>
       <c r="I6">
-        <v>0.1304088856443032</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J6">
-        <v>0.1304088856443032</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.67364816592456</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N6">
-        <v>4.67364816592456</v>
+        <v>55.721141</v>
       </c>
       <c r="O6">
-        <v>0.04171636218071132</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P6">
-        <v>0.04171636218071132</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q6">
-        <v>10.42896836369967</v>
+        <v>3.100500735519833</v>
       </c>
       <c r="R6">
-        <v>10.42896836369967</v>
+        <v>18.603004413119</v>
       </c>
       <c r="S6">
-        <v>0.005440184305120716</v>
+        <v>0.0009566984433966579</v>
       </c>
       <c r="T6">
-        <v>0.005440184305120716</v>
+        <v>0.0009405634683562124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>2.23144062057067</v>
+        <v>0.1669295</v>
       </c>
       <c r="H7">
-        <v>2.23144062057067</v>
+        <v>0.333859</v>
       </c>
       <c r="I7">
-        <v>0.1304088856443032</v>
+        <v>0.006785982139841532</v>
       </c>
       <c r="J7">
-        <v>0.1304088856443032</v>
+        <v>0.005473782762969397</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.6552658854129</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N7">
-        <v>39.6552658854129</v>
+        <v>131.041107</v>
       </c>
       <c r="O7">
-        <v>0.3539576312375314</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P7">
-        <v>0.3539576312375314</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q7">
-        <v>88.48837111624069</v>
+        <v>10.93731323547825</v>
       </c>
       <c r="R7">
-        <v>88.48837111624069</v>
+        <v>43.74925294191301</v>
       </c>
       <c r="S7">
-        <v>0.04615922025498367</v>
+        <v>0.003374845368507661</v>
       </c>
       <c r="T7">
-        <v>0.04615922025498367</v>
+        <v>0.002211951799356685</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.23144062057067</v>
+        <v>2.897122</v>
       </c>
       <c r="H8">
-        <v>2.23144062057067</v>
+        <v>8.691366</v>
       </c>
       <c r="I8">
-        <v>0.1304088856443032</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J8">
-        <v>0.1304088856443032</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.752994945328281</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N8">
-        <v>9.752994945328281</v>
+        <v>10.874051</v>
       </c>
       <c r="O8">
-        <v>0.08705393624885213</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P8">
-        <v>0.08705393624885213</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q8">
-        <v>21.76322909322595</v>
+        <v>15.751726190611</v>
       </c>
       <c r="R8">
-        <v>21.76322909322595</v>
+        <v>94.51035714366601</v>
       </c>
       <c r="S8">
-        <v>0.01135260681716302</v>
+        <v>0.004860392953540558</v>
       </c>
       <c r="T8">
-        <v>0.01135260681716302</v>
+        <v>0.004778421126855334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,557 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.23144062057067</v>
+        <v>2.897122</v>
       </c>
       <c r="H9">
-        <v>2.23144062057067</v>
+        <v>8.691366</v>
       </c>
       <c r="I9">
-        <v>0.1304088856443032</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J9">
-        <v>0.1304088856443032</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.9520249709885</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N9">
-        <v>57.9520249709885</v>
+        <v>126.222638</v>
       </c>
       <c r="O9">
-        <v>0.5172720703329052</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P9">
-        <v>0.5172720703329052</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q9">
-        <v>129.3165025645895</v>
+        <v>121.8941271492786</v>
       </c>
       <c r="R9">
-        <v>129.3165025645895</v>
+        <v>1097.047144343508</v>
       </c>
       <c r="S9">
-        <v>0.06745687426703578</v>
+        <v>0.03761196388923198</v>
       </c>
       <c r="T9">
-        <v>0.06745687426703578</v>
+        <v>0.05546644209288817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.90297587478183</v>
+        <v>2.897122</v>
       </c>
       <c r="H10">
-        <v>4.90297587478183</v>
+        <v>8.691366</v>
       </c>
       <c r="I10">
-        <v>0.2865375911314559</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J10">
-        <v>0.2865375911314559</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.67364816592456</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N10">
-        <v>4.67364816592456</v>
+        <v>0.038558</v>
       </c>
       <c r="O10">
-        <v>0.04171636218071132</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P10">
-        <v>0.04171636218071132</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q10">
-        <v>22.91478420474646</v>
+        <v>0.03723574335866667</v>
       </c>
       <c r="R10">
-        <v>22.91478420474646</v>
+        <v>0.335121690228</v>
       </c>
       <c r="S10">
-        <v>0.01195330593002839</v>
+        <v>1.148955628419846E-05</v>
       </c>
       <c r="T10">
-        <v>0.01195330593002839</v>
+        <v>1.694367276825241E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.90297587478183</v>
+        <v>2.897122</v>
       </c>
       <c r="H11">
-        <v>4.90297587478183</v>
+        <v>8.691366</v>
       </c>
       <c r="I11">
-        <v>0.2865375911314559</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J11">
-        <v>0.2865375911314559</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>39.6552658854129</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N11">
-        <v>39.6552658854129</v>
+        <v>0.381973</v>
       </c>
       <c r="O11">
-        <v>0.3539576312375314</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P11">
-        <v>0.3539576312375314</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q11">
-        <v>194.4288119442384</v>
+        <v>0.3688741272353334</v>
       </c>
       <c r="R11">
-        <v>194.4288119442384</v>
+        <v>3.319867145118</v>
       </c>
       <c r="S11">
-        <v>0.1014221670173984</v>
+        <v>0.0001138207449178935</v>
       </c>
       <c r="T11">
-        <v>0.1014221670173984</v>
+        <v>0.0001678516914338835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.90297587478183</v>
+        <v>2.897122</v>
       </c>
       <c r="H12">
-        <v>4.90297587478183</v>
+        <v>8.691366</v>
       </c>
       <c r="I12">
-        <v>0.2865375911314559</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J12">
-        <v>0.2865375911314559</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.752994945328281</v>
+        <v>18.57371366666667</v>
       </c>
       <c r="N12">
-        <v>9.752994945328281</v>
+        <v>55.721141</v>
       </c>
       <c r="O12">
-        <v>0.08705393624885213</v>
+        <v>0.1409815740273963</v>
       </c>
       <c r="P12">
-        <v>0.08705393624885213</v>
+        <v>0.1718306167937836</v>
       </c>
       <c r="Q12">
-        <v>47.81869892381369</v>
+        <v>53.81031448540067</v>
       </c>
       <c r="R12">
-        <v>47.81869892381369</v>
+        <v>484.292830368606</v>
       </c>
       <c r="S12">
-        <v>0.02494422519125742</v>
+        <v>0.01660384837748997</v>
       </c>
       <c r="T12">
-        <v>0.02494422519125742</v>
+        <v>0.02448573005284644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.90297587478183</v>
+        <v>2.897122</v>
       </c>
       <c r="H13">
-        <v>4.90297587478183</v>
+        <v>8.691366</v>
       </c>
       <c r="I13">
-        <v>0.2865375911314559</v>
+        <v>0.1177731805878648</v>
       </c>
       <c r="J13">
-        <v>0.2865375911314559</v>
+        <v>0.1424992269115353</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>57.9520249709885</v>
+        <v>65.52055350000001</v>
       </c>
       <c r="N13">
-        <v>57.9520249709885</v>
+        <v>131.041107</v>
       </c>
       <c r="O13">
-        <v>0.5172720703329052</v>
+        <v>0.4973260021852153</v>
       </c>
       <c r="P13">
-        <v>0.5172720703329052</v>
+        <v>0.4040993030123018</v>
       </c>
       <c r="Q13">
-        <v>284.1373803275108</v>
+        <v>189.821036997027</v>
       </c>
       <c r="R13">
-        <v>284.1373803275108</v>
+        <v>1138.926221982162</v>
       </c>
       <c r="S13">
-        <v>0.1482178929927717</v>
+        <v>0.05857166506640021</v>
       </c>
       <c r="T13">
-        <v>0.1482178929927717</v>
+        <v>0.05758383827474326</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H14">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I14">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J14">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.67364816592456</v>
+        <v>5.437025500000001</v>
       </c>
       <c r="N14">
-        <v>4.67364816592456</v>
+        <v>10.874051</v>
       </c>
       <c r="O14">
-        <v>0.04171636218071132</v>
+        <v>0.04126909818754922</v>
       </c>
       <c r="P14">
-        <v>0.04171636218071132</v>
+        <v>0.03353296176000882</v>
       </c>
       <c r="Q14">
-        <v>33.43612640481146</v>
+        <v>18.90426943690867</v>
       </c>
       <c r="R14">
-        <v>33.43612640481146</v>
+        <v>113.425616621452</v>
       </c>
       <c r="S14">
-        <v>0.01744167627592258</v>
+        <v>0.005833149767277598</v>
       </c>
       <c r="T14">
-        <v>0.01744167627592258</v>
+        <v>0.00573477213684261</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H15">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I15">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J15">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.6552658854129</v>
+        <v>42.07421266666666</v>
       </c>
       <c r="N15">
-        <v>39.6552658854129</v>
+        <v>126.222638</v>
       </c>
       <c r="O15">
-        <v>0.3539576312375314</v>
+        <v>0.3193593286815545</v>
       </c>
       <c r="P15">
-        <v>0.3539576312375314</v>
+        <v>0.3892403018250912</v>
       </c>
       <c r="Q15">
-        <v>283.7009624362203</v>
+        <v>146.2899617808418</v>
       </c>
       <c r="R15">
-        <v>283.7009624362203</v>
+        <v>1316.609656027576</v>
       </c>
       <c r="S15">
-        <v>0.1479902392421921</v>
+        <v>0.04513960506989617</v>
       </c>
       <c r="T15">
-        <v>0.1479902392421921</v>
+        <v>0.06656747034211731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H16">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I16">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J16">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>9.752994945328281</v>
+        <v>0.01285266666666667</v>
       </c>
       <c r="N16">
-        <v>9.752994945328281</v>
+        <v>0.038558</v>
       </c>
       <c r="O16">
-        <v>0.08705393624885213</v>
+        <v>9.755664427884466E-05</v>
       </c>
       <c r="P16">
-        <v>0.08705393624885213</v>
+        <v>0.0001189036118685134</v>
       </c>
       <c r="Q16">
-        <v>69.77469425171689</v>
+        <v>0.04468808793511111</v>
       </c>
       <c r="R16">
-        <v>69.77469425171689</v>
+        <v>0.402192791416</v>
       </c>
       <c r="S16">
-        <v>0.03639738690588265</v>
+        <v>1.378907080269592E-05</v>
       </c>
       <c r="T16">
-        <v>0.03639738690588265</v>
+        <v>2.033477165523477E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.15418131997897</v>
+        <v>3.476950666666667</v>
       </c>
       <c r="H17">
-        <v>7.15418131997897</v>
+        <v>10.430852</v>
       </c>
       <c r="I17">
-        <v>0.4181015640905333</v>
+        <v>0.1413442508670433</v>
       </c>
       <c r="J17">
-        <v>0.4181015640905333</v>
+        <v>0.1710189567472641</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>57.9520249709885</v>
+        <v>0.1273243333333333</v>
       </c>
       <c r="N17">
-        <v>57.9520249709885</v>
+        <v>0.381973</v>
       </c>
       <c r="O17">
-        <v>0.5172720703329052</v>
+        <v>0.0009664402740059944</v>
       </c>
       <c r="P17">
-        <v>0.5172720703329052</v>
+        <v>0.001177912996946202</v>
       </c>
       <c r="Q17">
-        <v>414.5992945024007</v>
+        <v>0.4427004256662223</v>
       </c>
       <c r="R17">
-        <v>414.5992945024007</v>
+        <v>3.984303830996</v>
       </c>
       <c r="S17">
-        <v>0.216272261666536</v>
+        <v>0.0001366007765371173</v>
       </c>
       <c r="T17">
-        <v>0.216272261666536</v>
+        <v>0.0002014454518767828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.476950666666667</v>
+      </c>
+      <c r="H18">
+        <v>10.430852</v>
+      </c>
+      <c r="I18">
+        <v>0.1413442508670433</v>
+      </c>
+      <c r="J18">
+        <v>0.1710189567472641</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N18">
+        <v>55.721141</v>
+      </c>
+      <c r="O18">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P18">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q18">
+        <v>64.57988611579245</v>
+      </c>
+      <c r="R18">
+        <v>581.218975042132</v>
+      </c>
+      <c r="S18">
+        <v>0.01992693496695894</v>
+      </c>
+      <c r="T18">
+        <v>0.02938629282131179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.476950666666667</v>
+      </c>
+      <c r="H19">
+        <v>10.430852</v>
+      </c>
+      <c r="I19">
+        <v>0.1413442508670433</v>
+      </c>
+      <c r="J19">
+        <v>0.1710189567472641</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N19">
+        <v>131.041107</v>
+      </c>
+      <c r="O19">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P19">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q19">
+        <v>227.811732172194</v>
+      </c>
+      <c r="R19">
+        <v>1366.870393033164</v>
+      </c>
+      <c r="S19">
+        <v>0.0702941712155708</v>
+      </c>
+      <c r="T19">
+        <v>0.06910864122346042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H20">
+        <v>16.079116</v>
+      </c>
+      <c r="I20">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J20">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N20">
+        <v>10.874051</v>
+      </c>
+      <c r="O20">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P20">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q20">
+        <v>29.14085456981934</v>
+      </c>
+      <c r="R20">
+        <v>174.845127418916</v>
+      </c>
+      <c r="S20">
+        <v>0.00899177667878228</v>
+      </c>
+      <c r="T20">
+        <v>0.008840127960962363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H21">
+        <v>16.079116</v>
+      </c>
+      <c r="I21">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J21">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N21">
+        <v>126.222638</v>
+      </c>
+      <c r="O21">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P21">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q21">
+        <v>225.5053820253342</v>
+      </c>
+      <c r="R21">
+        <v>2029.548438228008</v>
+      </c>
+      <c r="S21">
+        <v>0.06958251791062213</v>
+      </c>
+      <c r="T21">
+        <v>0.1026134852126618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H22">
+        <v>16.079116</v>
+      </c>
+      <c r="I22">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J22">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.038558</v>
+      </c>
+      <c r="O22">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P22">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q22">
+        <v>0.06888650608088889</v>
+      </c>
+      <c r="R22">
+        <v>0.619978554728</v>
+      </c>
+      <c r="S22">
+        <v>2.12557966471733E-05</v>
+      </c>
+      <c r="T22">
+        <v>3.134596793033128E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H23">
+        <v>16.079116</v>
+      </c>
+      <c r="I23">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J23">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.381973</v>
+      </c>
+      <c r="O23">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P23">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q23">
+        <v>0.6824209084297779</v>
+      </c>
+      <c r="R23">
+        <v>6.141788175868</v>
+      </c>
+      <c r="S23">
+        <v>0.0002105695423183445</v>
+      </c>
+      <c r="T23">
+        <v>0.0003105273460307181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H24">
+        <v>16.079116</v>
+      </c>
+      <c r="I24">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J24">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N24">
+        <v>55.721141</v>
+      </c>
+      <c r="O24">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P24">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q24">
+        <v>99.54963219903955</v>
+      </c>
+      <c r="R24">
+        <v>895.9466897913559</v>
+      </c>
+      <c r="S24">
+        <v>0.03071728933151279</v>
+      </c>
+      <c r="T24">
+        <v>0.04529885105107805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.359705333333333</v>
+      </c>
+      <c r="H25">
+        <v>16.079116</v>
+      </c>
+      <c r="I25">
+        <v>0.2178815887354446</v>
+      </c>
+      <c r="J25">
+        <v>0.2636250273456322</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N25">
+        <v>131.041107</v>
+      </c>
+      <c r="O25">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P25">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q25">
+        <v>351.170860036902</v>
+      </c>
+      <c r="R25">
+        <v>2107.025160221412</v>
+      </c>
+      <c r="S25">
+        <v>0.1083581794755619</v>
+      </c>
+      <c r="T25">
+        <v>0.106530689806969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.18079</v>
+      </c>
+      <c r="I26">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J26">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N26">
+        <v>10.874051</v>
+      </c>
+      <c r="O26">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P26">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q26">
+        <v>0.3276532800483334</v>
+      </c>
+      <c r="R26">
+        <v>1.96591968029</v>
+      </c>
+      <c r="S26">
+        <v>0.0001011015347956348</v>
+      </c>
+      <c r="T26">
+        <v>9.939643037977871E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H27">
+        <v>0.18079</v>
+      </c>
+      <c r="I27">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J27">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N27">
+        <v>126.222638</v>
+      </c>
+      <c r="O27">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P27">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q27">
+        <v>2.535532302668889</v>
+      </c>
+      <c r="R27">
+        <v>22.81979072402</v>
+      </c>
+      <c r="S27">
+        <v>0.0007823703375895401</v>
+      </c>
+      <c r="T27">
+        <v>0.001153763178995483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H28">
+        <v>0.18079</v>
+      </c>
+      <c r="I28">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J28">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.038558</v>
+      </c>
+      <c r="O28">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P28">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q28">
+        <v>0.0007745445355555556</v>
+      </c>
+      <c r="R28">
+        <v>0.006970900820000001</v>
+      </c>
+      <c r="S28">
+        <v>2.389954445158839E-07</v>
+      </c>
+      <c r="T28">
+        <v>3.524470836658304E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H29">
+        <v>0.18079</v>
+      </c>
+      <c r="I29">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J29">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.381973</v>
+      </c>
+      <c r="O29">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P29">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q29">
+        <v>0.007672988741111112</v>
+      </c>
+      <c r="R29">
+        <v>0.06905689867000001</v>
+      </c>
+      <c r="S29">
+        <v>2.367597046736493E-06</v>
+      </c>
+      <c r="T29">
+        <v>3.491500334277925E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H30">
+        <v>0.18079</v>
+      </c>
+      <c r="I30">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J30">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N30">
+        <v>55.721141</v>
+      </c>
+      <c r="O30">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P30">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q30">
+        <v>1.119313897932222</v>
+      </c>
+      <c r="R30">
+        <v>10.07382508139</v>
+      </c>
+      <c r="S30">
+        <v>0.0003453783614872981</v>
+      </c>
+      <c r="T30">
+        <v>0.0005093301946154503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.06026333333333334</v>
+      </c>
+      <c r="H31">
+        <v>0.18079</v>
+      </c>
+      <c r="I31">
+        <v>0.002449812068491889</v>
+      </c>
+      <c r="J31">
+        <v>0.002964141106626561</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N31">
+        <v>131.041107</v>
+      </c>
+      <c r="O31">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P31">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q31">
+        <v>3.948486955755</v>
+      </c>
+      <c r="R31">
+        <v>23.69092173453</v>
+      </c>
+      <c r="S31">
+        <v>0.001218355242128164</v>
+      </c>
+      <c r="T31">
+        <v>0.001197807355217906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>12.638195</v>
+      </c>
+      <c r="H32">
+        <v>25.27639</v>
+      </c>
+      <c r="I32">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J32">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.437025500000001</v>
+      </c>
+      <c r="N32">
+        <v>10.874051</v>
+      </c>
+      <c r="O32">
+        <v>0.04126909818754922</v>
+      </c>
+      <c r="P32">
+        <v>0.03353296176000882</v>
+      </c>
+      <c r="Q32">
+        <v>68.71418848897251</v>
+      </c>
+      <c r="R32">
+        <v>274.85675395589</v>
+      </c>
+      <c r="S32">
+        <v>0.02120262588992507</v>
+      </c>
+      <c r="T32">
+        <v>0.01389669195689548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>12.638195</v>
+      </c>
+      <c r="H33">
+        <v>25.27639</v>
+      </c>
+      <c r="I33">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J33">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>42.07421266666666</v>
+      </c>
+      <c r="N33">
+        <v>126.222638</v>
+      </c>
+      <c r="O33">
+        <v>0.3193593286815545</v>
+      </c>
+      <c r="P33">
+        <v>0.3892403018250912</v>
+      </c>
+      <c r="Q33">
+        <v>531.7421041528032</v>
+      </c>
+      <c r="R33">
+        <v>3190.45262491682</v>
+      </c>
+      <c r="S33">
+        <v>0.1640757047735899</v>
+      </c>
+      <c r="T33">
+        <v>0.1613085241436453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>12.638195</v>
+      </c>
+      <c r="H34">
+        <v>25.27639</v>
+      </c>
+      <c r="I34">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J34">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.01285266666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.038558</v>
+      </c>
+      <c r="O34">
+        <v>9.755664427884466E-05</v>
+      </c>
+      <c r="P34">
+        <v>0.0001189036118685134</v>
+      </c>
+      <c r="Q34">
+        <v>0.1624345076033333</v>
+      </c>
+      <c r="R34">
+        <v>0.97460704562</v>
+      </c>
+      <c r="S34">
+        <v>5.0121207454562E-05</v>
+      </c>
+      <c r="T34">
+        <v>4.927589988992841E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>12.638195</v>
+      </c>
+      <c r="H35">
+        <v>25.27639</v>
+      </c>
+      <c r="I35">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J35">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.1273243333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.381973</v>
+      </c>
+      <c r="O35">
+        <v>0.0009664402740059944</v>
+      </c>
+      <c r="P35">
+        <v>0.001177912996946202</v>
+      </c>
+      <c r="Q35">
+        <v>1.609149752911667</v>
+      </c>
+      <c r="R35">
+        <v>9.65489851747</v>
+      </c>
+      <c r="S35">
+        <v>0.0004965233667472745</v>
+      </c>
+      <c r="T35">
+        <v>0.0004881493674115781</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>12.638195</v>
+      </c>
+      <c r="H36">
+        <v>25.27639</v>
+      </c>
+      <c r="I36">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J36">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>18.57371366666667</v>
+      </c>
+      <c r="N36">
+        <v>55.721141</v>
+      </c>
+      <c r="O36">
+        <v>0.1409815740273963</v>
+      </c>
+      <c r="P36">
+        <v>0.1718306167937836</v>
+      </c>
+      <c r="Q36">
+        <v>234.7382151934983</v>
+      </c>
+      <c r="R36">
+        <v>1408.42929116099</v>
+      </c>
+      <c r="S36">
+        <v>0.07243142454655065</v>
+      </c>
+      <c r="T36">
+        <v>0.07120984920557565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>12.638195</v>
+      </c>
+      <c r="H37">
+        <v>25.27639</v>
+      </c>
+      <c r="I37">
+        <v>0.513765185601314</v>
+      </c>
+      <c r="J37">
+        <v>0.4144188651259724</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>65.52055350000001</v>
+      </c>
+      <c r="N37">
+        <v>131.041107</v>
+      </c>
+      <c r="O37">
+        <v>0.4973260021852153</v>
+      </c>
+      <c r="P37">
+        <v>0.4040993030123018</v>
+      </c>
+      <c r="Q37">
+        <v>828.0615316409326</v>
+      </c>
+      <c r="R37">
+        <v>3312.24612656373</v>
+      </c>
+      <c r="S37">
+        <v>0.2555087858170466</v>
+      </c>
+      <c r="T37">
+        <v>0.1674663745525545</v>
       </c>
     </row>
   </sheetData>
